--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna3-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna3-Epha7.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.370913</v>
+      </c>
+      <c r="H2">
+        <v>1.112739</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.2192063333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.657619</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.097922</v>
+        <v>0.042868</v>
       </c>
       <c r="N2">
-        <v>0.293766</v>
+        <v>0.128604</v>
       </c>
       <c r="O2">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="P2">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="Q2">
-        <v>0.02146512257266666</v>
+        <v>0.015900298484</v>
       </c>
       <c r="R2">
-        <v>0.193186103154</v>
+        <v>0.143102686356</v>
       </c>
       <c r="S2">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="T2">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H3">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>1.159712</v>
       </c>
       <c r="O3">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="P3">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="Q3">
-        <v>0.08473873841422222</v>
+        <v>0.1433840856853333</v>
       </c>
       <c r="R3">
-        <v>0.762648645728</v>
+        <v>1.290456771168</v>
       </c>
       <c r="S3">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="T3">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H4">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7920066666666666</v>
+        <v>0.9839956666666666</v>
       </c>
       <c r="N4">
-        <v>2.37602</v>
+        <v>2.951987</v>
       </c>
       <c r="O4">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="P4">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="Q4">
-        <v>0.1736128773755555</v>
+        <v>0.3649767847103333</v>
       </c>
       <c r="R4">
-        <v>1.56251589638</v>
+        <v>3.284791062393</v>
       </c>
       <c r="S4">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="T4">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.370913</v>
+      </c>
+      <c r="H5">
+        <v>1.112739</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.2192063333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.657619</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.05345533333333333</v>
+        <v>0.008575333333333332</v>
       </c>
       <c r="N5">
-        <v>0.160366</v>
+        <v>0.025726</v>
       </c>
       <c r="O5">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="P5">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="Q5">
-        <v>0.01171774761711111</v>
+        <v>0.003180702612666666</v>
       </c>
       <c r="R5">
-        <v>0.105459728554</v>
+        <v>0.028626323514</v>
       </c>
       <c r="S5">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="T5">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
     </row>
   </sheetData>
